--- a/Raj Chudasama/2022-12-14/ALDFWTP Guest Services/IN HOUSE GUEST 12-13-22.xlsx
+++ b/Raj Chudasama/2022-12-14/ALDFWTP Guest Services/IN HOUSE GUEST 12-13-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="309">
   <si>
     <t>Room Num</t>
   </si>
@@ -313,10 +313,10 @@
     <t>404</t>
   </si>
   <si>
-    <t xml:space="preserve"> KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QN</t>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>QN</t>
   </si>
   <si>
     <t>REG</t>
@@ -436,9 +436,6 @@
     <t>JORDAN,KATHERINE</t>
   </si>
   <si>
-    <t>KRISHNAMOORTHY,</t>
-  </si>
-  <si>
     <t>KUBLI,NIKOLAS</t>
   </si>
   <si>
@@ -622,10 +619,13 @@
     <t xml:space="preserve">Chick-Fi-A </t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulta Beauty </t>
   </si>
   <si>
-    <t xml:space="preserve">Core-Mark Internationa </t>
+    <t xml:space="preserve"> Core-Mark Internationa </t>
   </si>
   <si>
     <t xml:space="preserve">Cork&amp;pig </t>
@@ -640,67 +640,76 @@
     <t xml:space="preserve">Visitng Family </t>
   </si>
   <si>
+    <t xml:space="preserve"> Walmart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA1244 Samsung HVAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance :Aircraft Mai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Consumer Grou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baylor Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA1244 Samsung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAll 2 Wall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA1244 Samsung Hvac </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charles Schwab </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goosehead </t>
+  </si>
+  <si>
     <t xml:space="preserve">Walmart </t>
   </si>
   <si>
-    <t xml:space="preserve">SA1244 Samsung HVAC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance :Aircraft Mai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Consumer Grou </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor Hospital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA1244 Samsung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAll 2 Wall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA1244 Samsung Hvac </t>
+    <t xml:space="preserve">Fidelity Investments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance Aviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung HVAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strauss Foods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Motors </t>
   </si>
   <si>
     <t xml:space="preserve">Charles Schwab </t>
   </si>
   <si>
+    <t xml:space="preserve"> GO1055 Goosehead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Of Cumberla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gartner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defy Solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owns Business </t>
+  </si>
+  <si>
     <t xml:space="preserve">Goosehead </t>
   </si>
   <si>
-    <t xml:space="preserve">Fidelity Investments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance Aviation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung HVAC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strauss Foods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Motors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO1055 Goosehead </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University Of Cumberla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gartner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defy Solutions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owns Business </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defi Solutions </t>
+    <t xml:space="preserve"> Defi Solutions </t>
   </si>
   <si>
     <t xml:space="preserve">Dify Solutins </t>
@@ -709,7 +718,10 @@
     <t xml:space="preserve">Alliance Sports Group </t>
   </si>
   <si>
-    <t xml:space="preserve">CHarles Schwab </t>
+    <t xml:space="preserve"> Fidelity Investments </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHarles Schwab </t>
   </si>
   <si>
     <t>11-Dec-22</t>
@@ -1341,16 +1353,16 @@
         <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1370,19 +1382,19 @@
         <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1401,14 +1413,17 @@
       <c r="E4" t="s">
         <v>106</v>
       </c>
+      <c r="G4" t="s">
+        <v>201</v>
+      </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1428,19 +1443,19 @@
         <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
         <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1460,16 +1475,16 @@
         <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1492,10 +1507,10 @@
         <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1515,19 +1530,19 @@
         <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
         <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1546,11 +1561,14 @@
       <c r="E9" t="s">
         <v>111</v>
       </c>
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1570,19 +1588,19 @@
         <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
         <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1602,16 +1620,16 @@
         <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1631,19 +1649,19 @@
         <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
         <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1663,19 +1681,19 @@
         <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
         <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1698,10 +1716,10 @@
         <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1721,19 +1739,19 @@
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
         <v>209</v>
       </c>
       <c r="H15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1753,16 +1771,16 @@
         <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1782,16 +1800,16 @@
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H17" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1811,16 +1829,16 @@
         <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H18" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1840,19 +1858,19 @@
         <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
         <v>210</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1872,19 +1890,19 @@
         <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>211</v>
       </c>
       <c r="H20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1903,11 +1921,14 @@
       <c r="E21" t="s">
         <v>123</v>
       </c>
+      <c r="G21" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1927,16 +1948,16 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1956,19 +1977,19 @@
         <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>212</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1987,14 +2008,17 @@
       <c r="E24" t="s">
         <v>126</v>
       </c>
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
       <c r="H24" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2014,19 +2038,19 @@
         <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
         <v>213</v>
       </c>
       <c r="H25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2046,13 +2070,13 @@
         <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H26" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2072,19 +2096,19 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
         <v>206</v>
       </c>
       <c r="H27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2104,19 +2128,19 @@
         <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
         <v>214</v>
       </c>
       <c r="H28" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2136,16 +2160,16 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2165,19 +2189,19 @@
         <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
       <c r="H30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2196,11 +2220,14 @@
       <c r="E31" t="s">
         <v>133</v>
       </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
       <c r="H31" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2223,10 +2250,10 @@
         <v>216</v>
       </c>
       <c r="H32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2249,10 +2276,10 @@
         <v>217</v>
       </c>
       <c r="H33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2272,16 +2299,16 @@
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2304,13 +2331,13 @@
         <v>217</v>
       </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2330,16 +2357,16 @@
         <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2358,11 +2385,14 @@
       <c r="E37" t="s">
         <v>139</v>
       </c>
+      <c r="G37" t="s">
+        <v>201</v>
+      </c>
       <c r="H37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2379,22 +2409,22 @@
         <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H38" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2411,19 +2441,19 @@
         <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2440,19 +2470,19 @@
         <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2469,22 +2499,22 @@
         <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J41" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2501,13 +2531,16 @@
         <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>201</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2524,22 +2557,22 @@
         <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I43" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J43" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2556,22 +2589,22 @@
         <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H44" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I44" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J44" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2588,19 +2621,19 @@
         <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
         <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I45" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J45" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2617,22 +2650,22 @@
         <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J46" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2649,22 +2682,22 @@
         <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H47" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I47" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2681,22 +2714,22 @@
         <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G48" t="s">
         <v>206</v>
       </c>
       <c r="H48" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I48" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J48" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2713,22 +2746,22 @@
         <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J49" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2745,22 +2778,22 @@
         <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H50" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J50" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2777,19 +2810,19 @@
         <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H51" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J51" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2806,22 +2839,22 @@
         <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G52" t="s">
         <v>209</v>
       </c>
       <c r="H52" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I52" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J52" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2838,22 +2871,22 @@
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J53" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2870,22 +2903,22 @@
         <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H54" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I54" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J54" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2902,16 +2935,16 @@
         <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G55" t="s">
         <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I55" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2928,22 +2961,22 @@
         <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
         <v>206</v>
       </c>
       <c r="H56" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J56" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2960,16 +2993,16 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H57" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2986,16 +3019,16 @@
         <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G58" t="s">
         <v>216</v>
       </c>
       <c r="H58" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I58" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3012,19 +3045,19 @@
         <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
         <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I59" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J59" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3041,22 +3074,22 @@
         <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H60" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J60" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3073,19 +3106,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H61" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I61" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3102,19 +3135,19 @@
         <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H62" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3131,16 +3164,16 @@
         <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" t="s">
         <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I63" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3157,22 +3190,22 @@
         <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G64" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H64" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I64" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J64" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3189,19 +3222,19 @@
         <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I65" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3218,19 +3251,19 @@
         <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H66" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I66" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J66" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3247,16 +3280,19 @@
         <v>102</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="G67" t="s">
+        <v>201</v>
       </c>
       <c r="H67" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I67" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J67" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3273,22 +3309,22 @@
         <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H68" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I68" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3305,22 +3341,22 @@
         <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H69" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I69" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J69" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3337,22 +3373,22 @@
         <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H70" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I70" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J70" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3369,22 +3405,22 @@
         <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H71" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I71" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J71" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3401,16 +3437,16 @@
         <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G72" t="s">
         <v>216</v>
       </c>
       <c r="H72" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I72" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3427,16 +3463,16 @@
         <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
         <v>216</v>
       </c>
       <c r="H73" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3453,22 +3489,22 @@
         <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G74" t="s">
         <v>213</v>
       </c>
       <c r="H74" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J74" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3485,19 +3521,19 @@
         <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H75" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I75" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J75" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3514,22 +3550,22 @@
         <v>102</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H76" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J76" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3546,16 +3582,16 @@
         <v>102</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G77" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H77" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I77" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3572,22 +3608,22 @@
         <v>102</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G78" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H78" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I78" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J78" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3604,22 +3640,22 @@
         <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G79" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H79" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J79" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3636,16 +3672,16 @@
         <v>102</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G80" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="H80" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I80" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3662,19 +3698,19 @@
         <v>102</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H81" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I81" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J81" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3691,19 +3727,19 @@
         <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H82" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I82" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J82" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3720,22 +3756,22 @@
         <v>103</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G83" t="s">
         <v>206</v>
       </c>
       <c r="H83" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I83" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J83" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3752,16 +3788,16 @@
         <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G84" t="s">
         <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I84" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3778,16 +3814,16 @@
         <v>102</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G85" t="s">
         <v>216</v>
       </c>
       <c r="H85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I85" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3804,19 +3840,19 @@
         <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G86" t="s">
         <v>216</v>
       </c>
       <c r="H86" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I86" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J86" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3833,16 +3869,16 @@
         <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H87" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I87" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3859,19 +3895,19 @@
         <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H88" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J88" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3888,19 +3924,19 @@
         <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I89" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J89" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3917,22 +3953,22 @@
         <v>103</v>
       </c>
       <c r="E90" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" t="s">
         <v>192</v>
-      </c>
-      <c r="F90" t="s">
-        <v>193</v>
       </c>
       <c r="G90" t="s">
         <v>209</v>
       </c>
       <c r="H90" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I90" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J90" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
